--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11907.22816324105</v>
+        <v>2369538.404484966</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11907.22816324105</v>
+        <v>2369538.404484966</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38322.77678701997</v>
+        <v>2309169.931190366</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38322.77678701997</v>
+        <v>2309169.931190366</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266668852.987245</v>
+        <v>51291891.62425411</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12522.65065320575</v>
+        <v>1324013.117825776</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23380.783266522</v>
+        <v>2362643.885429138</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34238.91587983823</v>
+        <v>3401274.653032502</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46249.22036695365</v>
+        <v>4377837.003378659</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58259.52485406903</v>
+        <v>5354399.353724817</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70269.82934118441</v>
+        <v>6330961.70407097</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82280.13382829979</v>
+        <v>7307524.054417122</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94290.43831541523</v>
+        <v>8284086.404763274</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106084.0395269348</v>
+        <v>9236769.925677001</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117944.6100390929</v>
+        <v>10214430.85160185</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129798.0532785236</v>
+        <v>11190673.45025397</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141651.4495613961</v>
+        <v>12166916.0489061</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153504.8464935034</v>
+        <v>13143158.64755823</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>165358.2897329342</v>
+        <v>14119401.24621036</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>177257.7278893</v>
+        <v>15091127.21977274</v>
       </c>
     </row>
   </sheetData>
